--- a/2022/Samsung/February/17.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/17.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -140,6 +140,20 @@
             <family val="2"/>
           </rPr>
           <t>Printer Toner</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hajira+servicing Khata</t>
         </r>
       </text>
     </comment>
@@ -631,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -926,6 +940,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="44">
@@ -2813,6 +2834,9 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2824,18 +2848,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2864,10 +2876,22 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2937,9 +2961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3399,33 +3420,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="309"/>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
+      <c r="A1" s="310"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="307" t="s">
+      <c r="A2" s="311"/>
+      <c r="B2" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="310"/>
-      <c r="B3" s="308" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3443,7 +3464,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="310"/>
+      <c r="A5" s="311"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3461,7 +3482,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="310"/>
+      <c r="A6" s="311"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3473,7 +3494,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="310"/>
+      <c r="A7" s="311"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3513,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="310"/>
+      <c r="A8" s="311"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3511,7 +3532,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="310"/>
+      <c r="A9" s="311"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3530,7 +3551,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="310"/>
+      <c r="A10" s="311"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +3570,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="310"/>
+      <c r="A11" s="311"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3568,7 +3589,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="310"/>
+      <c r="A12" s="311"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3587,7 +3608,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="310"/>
+      <c r="A13" s="311"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3606,7 +3627,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="310"/>
+      <c r="A14" s="311"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3625,7 +3646,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="310"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3644,7 +3665,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="310"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3657,7 +3678,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="310"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3670,7 +3691,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="310"/>
+      <c r="A18" s="311"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3683,7 +3704,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="310"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3696,7 +3717,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="310"/>
+      <c r="A20" s="311"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3709,7 +3730,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="310"/>
+      <c r="A21" s="311"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3722,7 +3743,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="310"/>
+      <c r="A22" s="311"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3735,7 +3756,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="310"/>
+      <c r="A23" s="311"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3748,7 +3769,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="310"/>
+      <c r="A24" s="311"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3761,7 +3782,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="310"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3774,7 +3795,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="310"/>
+      <c r="A26" s="311"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3787,7 +3808,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="310"/>
+      <c r="A27" s="311"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3800,7 +3821,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="310"/>
+      <c r="A28" s="311"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3813,7 +3834,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="310"/>
+      <c r="A29" s="311"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3826,7 +3847,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="310"/>
+      <c r="A30" s="311"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3839,7 +3860,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="310"/>
+      <c r="A31" s="311"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3852,7 +3873,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="310"/>
+      <c r="A32" s="311"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3865,7 +3886,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="310"/>
+      <c r="A33" s="311"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3878,7 +3899,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="310"/>
+      <c r="A34" s="311"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3891,7 +3912,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="310"/>
+      <c r="A35" s="311"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3904,7 +3925,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="310"/>
+      <c r="A36" s="311"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3917,7 +3938,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="310"/>
+      <c r="A37" s="311"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3930,7 +3951,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="310"/>
+      <c r="A38" s="311"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3943,7 +3964,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="310"/>
+      <c r="A39" s="311"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3956,7 +3977,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="310"/>
+      <c r="A40" s="311"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3969,7 +3990,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="310"/>
+      <c r="A41" s="311"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3982,7 +4003,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="310"/>
+      <c r="A42" s="311"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3995,7 +4016,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="310"/>
+      <c r="A43" s="311"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4008,7 +4029,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="310"/>
+      <c r="A44" s="311"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4021,7 +4042,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="310"/>
+      <c r="A45" s="311"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4034,7 +4055,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="310"/>
+      <c r="A46" s="311"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4047,7 +4068,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="310"/>
+      <c r="A47" s="311"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4060,7 +4081,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="310"/>
+      <c r="A48" s="311"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4073,7 +4094,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="310"/>
+      <c r="A49" s="311"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4086,7 +4107,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="310"/>
+      <c r="A50" s="311"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4099,7 +4120,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="310"/>
+      <c r="A51" s="311"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4112,7 +4133,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="310"/>
+      <c r="A52" s="311"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4125,7 +4146,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="310"/>
+      <c r="A53" s="311"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4138,7 +4159,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="310"/>
+      <c r="A54" s="311"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4151,7 +4172,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="310"/>
+      <c r="A55" s="311"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4163,7 +4184,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="310"/>
+      <c r="A56" s="311"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4175,7 +4196,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="310"/>
+      <c r="A57" s="311"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4187,7 +4208,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="310"/>
+      <c r="A58" s="311"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4199,7 +4220,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="310"/>
+      <c r="A59" s="311"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4211,7 +4232,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="310"/>
+      <c r="A60" s="311"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4223,7 +4244,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="310"/>
+      <c r="A61" s="311"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4235,7 +4256,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="310"/>
+      <c r="A62" s="311"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4247,7 +4268,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="310"/>
+      <c r="A63" s="311"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4259,7 +4280,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="310"/>
+      <c r="A64" s="311"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4271,7 +4292,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="310"/>
+      <c r="A65" s="311"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4283,7 +4304,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="310"/>
+      <c r="A66" s="311"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4295,7 +4316,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="310"/>
+      <c r="A67" s="311"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4307,7 +4328,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="310"/>
+      <c r="A68" s="311"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4319,7 +4340,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="310"/>
+      <c r="A69" s="311"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4331,7 +4352,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="310"/>
+      <c r="A70" s="311"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4343,7 +4364,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="310"/>
+      <c r="A71" s="311"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4355,7 +4376,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="310"/>
+      <c r="A72" s="311"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4367,7 +4388,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="310"/>
+      <c r="A73" s="311"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4379,7 +4400,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="310"/>
+      <c r="A74" s="311"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4391,7 +4412,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="310"/>
+      <c r="A75" s="311"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4403,7 +4424,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="310"/>
+      <c r="A76" s="311"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4415,7 +4436,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="310"/>
+      <c r="A77" s="311"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4427,7 +4448,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="310"/>
+      <c r="A78" s="311"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4439,7 +4460,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="310"/>
+      <c r="A79" s="311"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4451,7 +4472,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="310"/>
+      <c r="A80" s="311"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4463,7 +4484,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="310"/>
+      <c r="A81" s="311"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4475,7 +4496,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="310"/>
+      <c r="A82" s="311"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4487,7 +4508,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="310"/>
+      <c r="A83" s="311"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5094,33 +5115,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="309"/>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
+      <c r="A1" s="310"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="307" t="s">
+      <c r="A2" s="311"/>
+      <c r="B2" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="310"/>
-      <c r="B3" s="308" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5159,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="310"/>
+      <c r="A5" s="311"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5156,7 +5177,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="310"/>
+      <c r="A6" s="311"/>
       <c r="B6" s="26"/>
       <c r="C6" s="252"/>
       <c r="D6" s="252"/>
@@ -5168,7 +5189,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="310"/>
+      <c r="A7" s="311"/>
       <c r="B7" s="26" t="s">
         <v>70</v>
       </c>
@@ -5186,7 +5207,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="310"/>
+      <c r="A8" s="311"/>
       <c r="B8" s="26" t="s">
         <v>90</v>
       </c>
@@ -5204,7 +5225,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="310"/>
+      <c r="A9" s="311"/>
       <c r="B9" s="26" t="s">
         <v>99</v>
       </c>
@@ -5222,7 +5243,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="310"/>
+      <c r="A10" s="311"/>
       <c r="B10" s="26" t="s">
         <v>106</v>
       </c>
@@ -5240,7 +5261,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="310"/>
+      <c r="A11" s="311"/>
       <c r="B11" s="26" t="s">
         <v>117</v>
       </c>
@@ -5258,7 +5279,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="310"/>
+      <c r="A12" s="311"/>
       <c r="B12" s="26" t="s">
         <v>129</v>
       </c>
@@ -5278,7 +5299,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="310"/>
+      <c r="A13" s="311"/>
       <c r="B13" s="26" t="s">
         <v>138</v>
       </c>
@@ -5296,7 +5317,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="310"/>
+      <c r="A14" s="311"/>
       <c r="B14" s="26" t="s">
         <v>139</v>
       </c>
@@ -5316,7 +5337,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="310"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="26" t="s">
         <v>140</v>
       </c>
@@ -5334,7 +5355,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="310"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="26" t="s">
         <v>146</v>
       </c>
@@ -5352,7 +5373,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="310"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="26" t="s">
         <v>147</v>
       </c>
@@ -5372,7 +5393,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="310"/>
+      <c r="A18" s="311"/>
       <c r="B18" s="26" t="s">
         <v>151</v>
       </c>
@@ -5390,7 +5411,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="310"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="26" t="s">
         <v>152</v>
       </c>
@@ -5408,7 +5429,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="310"/>
+      <c r="A20" s="311"/>
       <c r="B20" s="26" t="s">
         <v>156</v>
       </c>
@@ -5426,7 +5447,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="310"/>
+      <c r="A21" s="311"/>
       <c r="B21" s="26"/>
       <c r="C21" s="252"/>
       <c r="D21" s="252"/>
@@ -5438,7 +5459,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="310"/>
+      <c r="A22" s="311"/>
       <c r="B22" s="26"/>
       <c r="C22" s="252"/>
       <c r="D22" s="252"/>
@@ -5450,7 +5471,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="310"/>
+      <c r="A23" s="311"/>
       <c r="B23" s="26"/>
       <c r="C23" s="252"/>
       <c r="D23" s="252"/>
@@ -5462,7 +5483,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="310"/>
+      <c r="A24" s="311"/>
       <c r="B24" s="26"/>
       <c r="C24" s="252"/>
       <c r="D24" s="252"/>
@@ -5474,7 +5495,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="310"/>
+      <c r="A25" s="311"/>
       <c r="B25" s="26"/>
       <c r="C25" s="252"/>
       <c r="D25" s="252"/>
@@ -5486,7 +5507,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="310"/>
+      <c r="A26" s="311"/>
       <c r="B26" s="26"/>
       <c r="C26" s="252"/>
       <c r="D26" s="252"/>
@@ -5498,7 +5519,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="310"/>
+      <c r="A27" s="311"/>
       <c r="B27" s="26"/>
       <c r="C27" s="252"/>
       <c r="D27" s="252"/>
@@ -5510,7 +5531,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="310"/>
+      <c r="A28" s="311"/>
       <c r="B28" s="26"/>
       <c r="C28" s="252"/>
       <c r="D28" s="252"/>
@@ -5522,7 +5543,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="310"/>
+      <c r="A29" s="311"/>
       <c r="B29" s="26"/>
       <c r="C29" s="252"/>
       <c r="D29" s="252"/>
@@ -5534,7 +5555,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="310"/>
+      <c r="A30" s="311"/>
       <c r="B30" s="26"/>
       <c r="C30" s="252"/>
       <c r="D30" s="252"/>
@@ -5546,7 +5567,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="310"/>
+      <c r="A31" s="311"/>
       <c r="B31" s="26"/>
       <c r="C31" s="252"/>
       <c r="D31" s="252"/>
@@ -5558,7 +5579,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="310"/>
+      <c r="A32" s="311"/>
       <c r="B32" s="26"/>
       <c r="C32" s="252"/>
       <c r="D32" s="252"/>
@@ -5570,7 +5591,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="310"/>
+      <c r="A33" s="311"/>
       <c r="B33" s="26"/>
       <c r="C33" s="252"/>
       <c r="D33" s="255"/>
@@ -5582,7 +5603,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="310"/>
+      <c r="A34" s="311"/>
       <c r="B34" s="26"/>
       <c r="C34" s="252"/>
       <c r="D34" s="252"/>
@@ -5594,7 +5615,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="310"/>
+      <c r="A35" s="311"/>
       <c r="B35" s="26"/>
       <c r="C35" s="252"/>
       <c r="D35" s="252"/>
@@ -5606,7 +5627,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="310"/>
+      <c r="A36" s="311"/>
       <c r="B36" s="26"/>
       <c r="C36" s="252"/>
       <c r="D36" s="252"/>
@@ -5618,7 +5639,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="310"/>
+      <c r="A37" s="311"/>
       <c r="B37" s="26"/>
       <c r="C37" s="252"/>
       <c r="D37" s="252"/>
@@ -5630,7 +5651,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="310"/>
+      <c r="A38" s="311"/>
       <c r="B38" s="26"/>
       <c r="C38" s="252"/>
       <c r="D38" s="252"/>
@@ -5642,7 +5663,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="310"/>
+      <c r="A39" s="311"/>
       <c r="B39" s="26"/>
       <c r="C39" s="252"/>
       <c r="D39" s="252"/>
@@ -5654,7 +5675,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="310"/>
+      <c r="A40" s="311"/>
       <c r="B40" s="26"/>
       <c r="C40" s="252"/>
       <c r="D40" s="252"/>
@@ -5666,7 +5687,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="310"/>
+      <c r="A41" s="311"/>
       <c r="B41" s="26"/>
       <c r="C41" s="252"/>
       <c r="D41" s="252"/>
@@ -5678,7 +5699,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="310"/>
+      <c r="A42" s="311"/>
       <c r="B42" s="26"/>
       <c r="C42" s="252"/>
       <c r="D42" s="252"/>
@@ -5690,7 +5711,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="310"/>
+      <c r="A43" s="311"/>
       <c r="B43" s="26"/>
       <c r="C43" s="252"/>
       <c r="D43" s="252"/>
@@ -5702,7 +5723,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="310"/>
+      <c r="A44" s="311"/>
       <c r="B44" s="26"/>
       <c r="C44" s="252"/>
       <c r="D44" s="252"/>
@@ -5714,7 +5735,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="310"/>
+      <c r="A45" s="311"/>
       <c r="B45" s="26"/>
       <c r="C45" s="252"/>
       <c r="D45" s="252"/>
@@ -5726,7 +5747,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="310"/>
+      <c r="A46" s="311"/>
       <c r="B46" s="26"/>
       <c r="C46" s="252"/>
       <c r="D46" s="252"/>
@@ -5738,7 +5759,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="310"/>
+      <c r="A47" s="311"/>
       <c r="B47" s="26"/>
       <c r="C47" s="252"/>
       <c r="D47" s="252"/>
@@ -5750,7 +5771,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="310"/>
+      <c r="A48" s="311"/>
       <c r="B48" s="26"/>
       <c r="C48" s="252"/>
       <c r="D48" s="252"/>
@@ -5762,7 +5783,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="310"/>
+      <c r="A49" s="311"/>
       <c r="B49" s="26"/>
       <c r="C49" s="252"/>
       <c r="D49" s="252"/>
@@ -5774,7 +5795,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="310"/>
+      <c r="A50" s="311"/>
       <c r="B50" s="26"/>
       <c r="C50" s="252"/>
       <c r="D50" s="252"/>
@@ -5786,7 +5807,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="310"/>
+      <c r="A51" s="311"/>
       <c r="B51" s="26"/>
       <c r="C51" s="252"/>
       <c r="D51" s="252"/>
@@ -5798,7 +5819,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="310"/>
+      <c r="A52" s="311"/>
       <c r="B52" s="26"/>
       <c r="C52" s="252"/>
       <c r="D52" s="252"/>
@@ -5810,7 +5831,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="310"/>
+      <c r="A53" s="311"/>
       <c r="B53" s="26"/>
       <c r="C53" s="252"/>
       <c r="D53" s="252"/>
@@ -5822,7 +5843,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="310"/>
+      <c r="A54" s="311"/>
       <c r="B54" s="26"/>
       <c r="C54" s="252"/>
       <c r="D54" s="252"/>
@@ -5834,7 +5855,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="310"/>
+      <c r="A55" s="311"/>
       <c r="B55" s="26"/>
       <c r="C55" s="252"/>
       <c r="D55" s="252"/>
@@ -5845,7 +5866,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="310"/>
+      <c r="A56" s="311"/>
       <c r="B56" s="26"/>
       <c r="C56" s="252"/>
       <c r="D56" s="252"/>
@@ -5856,7 +5877,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="310"/>
+      <c r="A57" s="311"/>
       <c r="B57" s="26"/>
       <c r="C57" s="252"/>
       <c r="D57" s="252"/>
@@ -5867,7 +5888,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="310"/>
+      <c r="A58" s="311"/>
       <c r="B58" s="26"/>
       <c r="C58" s="252"/>
       <c r="D58" s="252"/>
@@ -5878,7 +5899,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="310"/>
+      <c r="A59" s="311"/>
       <c r="B59" s="26"/>
       <c r="C59" s="252"/>
       <c r="D59" s="252"/>
@@ -5889,7 +5910,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="310"/>
+      <c r="A60" s="311"/>
       <c r="B60" s="26"/>
       <c r="C60" s="252"/>
       <c r="D60" s="252"/>
@@ -5900,7 +5921,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="310"/>
+      <c r="A61" s="311"/>
       <c r="B61" s="26"/>
       <c r="C61" s="252"/>
       <c r="D61" s="252"/>
@@ -5911,7 +5932,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="310"/>
+      <c r="A62" s="311"/>
       <c r="B62" s="26"/>
       <c r="C62" s="252"/>
       <c r="D62" s="252"/>
@@ -5922,7 +5943,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="310"/>
+      <c r="A63" s="311"/>
       <c r="B63" s="26"/>
       <c r="C63" s="252"/>
       <c r="D63" s="252"/>
@@ -5933,7 +5954,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="310"/>
+      <c r="A64" s="311"/>
       <c r="B64" s="26"/>
       <c r="C64" s="252"/>
       <c r="D64" s="252"/>
@@ -5944,7 +5965,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="310"/>
+      <c r="A65" s="311"/>
       <c r="B65" s="26"/>
       <c r="C65" s="252"/>
       <c r="D65" s="252"/>
@@ -5955,7 +5976,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="310"/>
+      <c r="A66" s="311"/>
       <c r="B66" s="26"/>
       <c r="C66" s="252"/>
       <c r="D66" s="252"/>
@@ -5966,7 +5987,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="310"/>
+      <c r="A67" s="311"/>
       <c r="B67" s="26"/>
       <c r="C67" s="252"/>
       <c r="D67" s="252"/>
@@ -5977,7 +5998,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="310"/>
+      <c r="A68" s="311"/>
       <c r="B68" s="26"/>
       <c r="C68" s="252"/>
       <c r="D68" s="252"/>
@@ -5988,7 +6009,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="310"/>
+      <c r="A69" s="311"/>
       <c r="B69" s="26"/>
       <c r="C69" s="252"/>
       <c r="D69" s="252"/>
@@ -5999,7 +6020,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="310"/>
+      <c r="A70" s="311"/>
       <c r="B70" s="26"/>
       <c r="C70" s="252"/>
       <c r="D70" s="252"/>
@@ -6010,7 +6031,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="310"/>
+      <c r="A71" s="311"/>
       <c r="B71" s="26"/>
       <c r="C71" s="252"/>
       <c r="D71" s="252"/>
@@ -6021,7 +6042,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="310"/>
+      <c r="A72" s="311"/>
       <c r="B72" s="26"/>
       <c r="C72" s="252"/>
       <c r="D72" s="252"/>
@@ -6032,7 +6053,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="310"/>
+      <c r="A73" s="311"/>
       <c r="B73" s="26"/>
       <c r="C73" s="252"/>
       <c r="D73" s="252"/>
@@ -6043,7 +6064,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="310"/>
+      <c r="A74" s="311"/>
       <c r="B74" s="26"/>
       <c r="C74" s="252"/>
       <c r="D74" s="252"/>
@@ -6054,7 +6075,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="310"/>
+      <c r="A75" s="311"/>
       <c r="B75" s="26"/>
       <c r="C75" s="252"/>
       <c r="D75" s="252"/>
@@ -6065,7 +6086,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="310"/>
+      <c r="A76" s="311"/>
       <c r="B76" s="26"/>
       <c r="C76" s="252"/>
       <c r="D76" s="252"/>
@@ -6076,7 +6097,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="310"/>
+      <c r="A77" s="311"/>
       <c r="B77" s="26"/>
       <c r="C77" s="252"/>
       <c r="D77" s="252"/>
@@ -6087,7 +6108,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="310"/>
+      <c r="A78" s="311"/>
       <c r="B78" s="26"/>
       <c r="C78" s="252"/>
       <c r="D78" s="252"/>
@@ -6098,7 +6119,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="310"/>
+      <c r="A79" s="311"/>
       <c r="B79" s="26"/>
       <c r="C79" s="252"/>
       <c r="D79" s="252"/>
@@ -6110,7 +6131,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="310"/>
+      <c r="A80" s="311"/>
       <c r="B80" s="26"/>
       <c r="C80" s="252"/>
       <c r="D80" s="252"/>
@@ -6122,7 +6143,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="310"/>
+      <c r="A81" s="311"/>
       <c r="B81" s="26"/>
       <c r="C81" s="252"/>
       <c r="D81" s="252"/>
@@ -6134,7 +6155,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="310"/>
+      <c r="A82" s="311"/>
       <c r="B82" s="26"/>
       <c r="C82" s="252"/>
       <c r="D82" s="252"/>
@@ -6146,7 +6167,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="310"/>
+      <c r="A83" s="311"/>
       <c r="B83" s="31"/>
       <c r="C83" s="254">
         <f>SUM(C5:C72)</f>
@@ -6183,8 +6204,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6201,67 +6222,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="314" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="318"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="319"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="315"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="315"/>
+      <c r="Q3" s="316"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6270,52 +6291,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="317" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="319" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="321" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="311" t="s">
+      <c r="D4" s="321" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="311" t="s">
+      <c r="E4" s="321" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="311" t="s">
+      <c r="F4" s="321" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="311" t="s">
+      <c r="G4" s="321" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="311" t="s">
+      <c r="H4" s="321" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="311" t="s">
+      <c r="I4" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="311" t="s">
+      <c r="J4" s="321" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="311" t="s">
+      <c r="K4" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="311" t="s">
+      <c r="L4" s="321" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="311" t="s">
+      <c r="M4" s="321" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="311" t="s">
+      <c r="N4" s="321" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="313" t="s">
+      <c r="O4" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="324" t="s">
+      <c r="P4" s="323" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="126" t="s">
@@ -6328,22 +6349,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="321"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="312"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="312"/>
-      <c r="N5" s="312"/>
-      <c r="O5" s="314"/>
-      <c r="P5" s="325"/>
+      <c r="A5" s="318"/>
+      <c r="B5" s="320"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="322"/>
+      <c r="O5" s="326"/>
+      <c r="P5" s="324"/>
       <c r="Q5" s="127" t="s">
         <v>42</v>
       </c>
@@ -6859,7 +6880,9 @@
       </c>
       <c r="B20" s="82"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="83"/>
+      <c r="D20" s="83">
+        <v>80</v>
+      </c>
       <c r="E20" s="83"/>
       <c r="F20" s="114"/>
       <c r="G20" s="83"/>
@@ -6878,7 +6901,7 @@
       <c r="P20" s="85"/>
       <c r="Q20" s="79">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="R20" s="80"/>
       <c r="S20" s="6"/>
@@ -7289,7 +7312,7 @@
       </c>
       <c r="D37" s="101">
         <f t="shared" si="1"/>
-        <v>5225</v>
+        <v>5305</v>
       </c>
       <c r="E37" s="101">
         <f t="shared" si="1"/>
@@ -7341,7 +7364,7 @@
       </c>
       <c r="Q37" s="103">
         <f>SUM(Q6:Q36)</f>
-        <v>18155</v>
+        <v>18235</v>
       </c>
       <c r="S37" s="231" t="s">
         <v>45</v>
@@ -9345,8 +9368,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9364,6 +9385,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9376,8 +9399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9404,15 +9427,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
       <c r="H1" s="60"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -9505,15 +9528,15 @@
       <c r="CS1" s="138"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
       <c r="H2" s="60"/>
       <c r="I2" s="143"/>
       <c r="J2" s="143"/>
@@ -9606,15 +9629,15 @@
       <c r="CS2" s="138"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="334" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
       <c r="H3" s="60"/>
       <c r="I3" s="143"/>
       <c r="J3" s="143"/>
@@ -13014,12 +13037,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="133"/>
-      <c r="B35" s="328" t="s">
+      <c r="B35" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="328"/>
-      <c r="D35" s="328"/>
-      <c r="E35" s="328"/>
+      <c r="C35" s="329"/>
+      <c r="D35" s="329"/>
+      <c r="E35" s="329"/>
       <c r="F35" s="134"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
@@ -13850,10 +13873,10 @@
       <c r="D43" s="208"/>
       <c r="E43" s="176"/>
       <c r="F43" s="134"/>
-      <c r="G43" s="329"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="329"/>
+      <c r="G43" s="330"/>
+      <c r="H43" s="330"/>
+      <c r="I43" s="330"/>
+      <c r="J43" s="330"/>
       <c r="K43" s="60"/>
       <c r="L43" s="143"/>
       <c r="M43" s="60"/>
@@ -21757,11 +21780,11 @@
       <c r="CS118" s="138"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="326" t="s">
+      <c r="A119" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="327"/>
-      <c r="C119" s="330"/>
+      <c r="B119" s="328"/>
+      <c r="C119" s="331"/>
       <c r="D119" s="214">
         <f>SUM(D37:D118)</f>
         <v>2650150</v>
@@ -21964,11 +21987,11 @@
       <c r="CS120" s="138"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="326" t="s">
+      <c r="A121" s="327" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="327"/>
-      <c r="C121" s="327"/>
+      <c r="B121" s="328"/>
+      <c r="C121" s="328"/>
       <c r="D121" s="214">
         <f>D119+M121</f>
         <v>2650150</v>
@@ -33203,7 +33226,7 @@
   <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33219,35 +33242,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="336"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="337"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="344" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="345"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="346"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="338" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="338"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="339"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="340"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33262,13 +33285,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="347" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="347"/>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="348"/>
+      <c r="B4" s="348"/>
+      <c r="C4" s="348"/>
+      <c r="D4" s="348"/>
+      <c r="E4" s="349"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33513,7 +33536,7 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="21.75">
-      <c r="A14" s="349" t="s">
+      <c r="A14" s="307" t="s">
         <v>157</v>
       </c>
       <c r="B14" s="249">
@@ -33589,13 +33612,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="22.5">
-      <c r="A17" s="340" t="s">
+      <c r="A17" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="341"/>
-      <c r="C17" s="341"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="342"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="342"/>
+      <c r="E17" s="343"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
